--- a/Jogos_do_Dia/2023-01-03_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-03_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="G2" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H2" t="n">
-        <v>2.66</v>
+        <v>2.4</v>
       </c>
       <c r="I2" t="n">
         <v>1.08</v>
@@ -653,10 +653,10 @@
         <v>2.62</v>
       </c>
       <c r="M2" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="N2" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H3" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="I3" t="n">
         <v>1.07</v>
@@ -760,7 +760,7 @@
         <v>1.53</v>
       </c>
       <c r="L3" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="M3" t="n">
         <v>2.38</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="G4" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H4" t="n">
-        <v>2.94</v>
+        <v>2.75</v>
       </c>
       <c r="I4" t="n">
         <v>1.03</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="G5" t="n">
-        <v>2.97</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="I5" t="n">
         <v>1.06</v>
@@ -1025,19 +1025,19 @@
         <v>2.55</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AF5" t="n">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>8.84</v>
+        <v>10.8</v>
       </c>
       <c r="G6" t="n">
-        <v>3.94</v>
+        <v>4.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="I6" t="n">
         <v>1.05</v>
@@ -1093,10 +1093,10 @@
         <v>3.2</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="N6" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="O6" t="n">
         <v>1.46</v>
@@ -1135,19 +1135,19 @@
         <v>2.52</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>6.55</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AF6" t="n">
         <v>0</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.58</v>
+        <v>2.55</v>
       </c>
       <c r="G7" t="n">
         <v>2.8</v>
       </c>
       <c r="H7" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I7" t="n">
         <v>1.07</v>
@@ -1203,10 +1203,10 @@
         <v>2.6</v>
       </c>
       <c r="M7" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="N7" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="O7" t="n">
         <v>1.49</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="H8" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="I8" t="n">
         <v>1.04</v>
@@ -1313,10 +1313,10 @@
         <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="N8" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O8" t="n">
         <v>1.33</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>6.29</v>
+        <v>7.1</v>
       </c>
       <c r="G9" t="n">
-        <v>3.71</v>
+        <v>4.15</v>
       </c>
       <c r="H9" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="I9" t="n">
         <v>1.05</v>
@@ -1423,7 +1423,7 @@
         <v>3.4</v>
       </c>
       <c r="M9" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="N9" t="n">
         <v>1.67</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="G10" t="n">
-        <v>3.43</v>
+        <v>3.2</v>
       </c>
       <c r="H10" t="n">
-        <v>4.76</v>
+        <v>4.7</v>
       </c>
       <c r="I10" t="n">
         <v>1.08</v>
@@ -1533,10 +1533,10 @@
         <v>2.62</v>
       </c>
       <c r="M10" t="n">
-        <v>1.93</v>
+        <v>2.35</v>
       </c>
       <c r="N10" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="O10" t="n">
         <v>1.5</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>9.529999999999999</v>
+        <v>12</v>
       </c>
       <c r="G11" t="n">
-        <v>4.11</v>
+        <v>4.75</v>
       </c>
       <c r="H11" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="I11" t="n">
         <v>1.04</v>
@@ -1643,10 +1643,10 @@
         <v>3.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="N11" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="O11" t="n">
         <v>1.36</v>
@@ -1685,19 +1685,19 @@
         <v>3.16</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>4.88</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AF11" t="n">
         <v>0</v>
@@ -1783,16 +1783,16 @@
         <v>1.8</v>
       </c>
       <c r="W12" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="X12" t="n">
         <v>1.4</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="Z12" t="n">
-        <v>3.08</v>
+        <v>3.18</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="G15" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H15" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="I15" t="n">
         <v>1.04</v>
@@ -2083,10 +2083,10 @@
         <v>4.15</v>
       </c>
       <c r="M15" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="N15" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="O15" t="n">
         <v>1.33</v>
@@ -2125,28 +2125,28 @@
         <v>3.87</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="16">
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="G16" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H16" t="n">
-        <v>2.07</v>
+        <v>2.04</v>
       </c>
       <c r="I16" t="n">
         <v>1.07</v>
@@ -2193,10 +2193,10 @@
         <v>3.35</v>
       </c>
       <c r="M16" t="n">
-        <v>2.11</v>
+        <v>1.97</v>
       </c>
       <c r="N16" t="n">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="O16" t="n">
         <v>1.4</v>
@@ -2235,28 +2235,28 @@
         <v>3.13</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="17">
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.14</v>
+        <v>1.94</v>
       </c>
       <c r="G17" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="I17" t="n">
         <v>1.05</v>
@@ -2303,10 +2303,10 @@
         <v>4.05</v>
       </c>
       <c r="M17" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="N17" t="n">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="O17" t="n">
         <v>1.36</v>
@@ -2345,28 +2345,28 @@
         <v>2.73</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="18">
@@ -2395,10 +2395,10 @@
         <v>1.3</v>
       </c>
       <c r="G18" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="H18" t="n">
-        <v>7.2</v>
+        <v>10</v>
       </c>
       <c r="I18" t="n">
         <v>1.02</v>
@@ -2413,10 +2413,10 @@
         <v>5.4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="N18" t="n">
-        <v>2.35</v>
+        <v>2.31</v>
       </c>
       <c r="O18" t="n">
         <v>1.29</v>
@@ -2455,28 +2455,28 @@
         <v>2.98</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-01-03_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-03_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="G2" t="n">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="H2" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="I2" t="n">
         <v>1.08</v>
@@ -704,7 +704,7 @@
         <v>2.25</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE2" t="n">
         <v>1.49</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="G3" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="H3" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="I3" t="n">
         <v>1.07</v>
@@ -763,10 +763,10 @@
         <v>2.4</v>
       </c>
       <c r="M3" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="N3" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="O3" t="n">
         <v>1.55</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.25</v>
+        <v>2.21</v>
       </c>
       <c r="G4" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H4" t="n">
-        <v>2.75</v>
+        <v>3.44</v>
       </c>
       <c r="I4" t="n">
         <v>1.03</v>
@@ -873,10 +873,10 @@
         <v>3.6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O4" t="n">
         <v>1.37</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.35</v>
+        <v>2.31</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="H5" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="I5" t="n">
         <v>1.06</v>
@@ -983,10 +983,10 @@
         <v>3.2</v>
       </c>
       <c r="M5" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="N5" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O5" t="n">
         <v>1.44</v>
@@ -1034,16 +1034,16 @@
         <v>2.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AE5" t="n">
         <v>1.8</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>10.8</v>
+        <v>11.29</v>
       </c>
       <c r="G6" t="n">
-        <v>4.5</v>
+        <v>4.71</v>
       </c>
       <c r="H6" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="I6" t="n">
         <v>1.05</v>
@@ -1093,10 +1093,10 @@
         <v>3.2</v>
       </c>
       <c r="M6" t="n">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="N6" t="n">
-        <v>1.66</v>
+        <v>1.83</v>
       </c>
       <c r="O6" t="n">
         <v>1.46</v>
@@ -1144,16 +1144,16 @@
         <v>1.18</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AE6" t="n">
         <v>1.88</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="G7" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="H7" t="n">
         <v>2.8</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.88</v>
       </c>
       <c r="I7" t="n">
         <v>1.07</v>
@@ -1266,7 +1266,7 @@
         <v>2.49</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="8">
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>3.69</v>
       </c>
       <c r="G8" t="n">
-        <v>3.7</v>
+        <v>3.69</v>
       </c>
       <c r="H8" t="n">
-        <v>1.75</v>
+        <v>2.01</v>
       </c>
       <c r="I8" t="n">
         <v>1.04</v>
@@ -1313,10 +1313,10 @@
         <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="N8" t="n">
-        <v>2.08</v>
+        <v>2.23</v>
       </c>
       <c r="O8" t="n">
         <v>1.33</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>7.1</v>
+        <v>8.59</v>
       </c>
       <c r="G9" t="n">
-        <v>4.15</v>
+        <v>4.41</v>
       </c>
       <c r="H9" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="I9" t="n">
         <v>1.05</v>
@@ -1423,10 +1423,10 @@
         <v>3.4</v>
       </c>
       <c r="M9" t="n">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="N9" t="n">
-        <v>1.67</v>
+        <v>1.84</v>
       </c>
       <c r="O9" t="n">
         <v>1.4</v>
@@ -1474,7 +1474,7 @@
         <v>1.19</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE9" t="n">
         <v>1.57</v>
@@ -1486,7 +1486,7 @@
         <v>2.39</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="10">
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="G10" t="n">
         <v>3.2</v>
       </c>
       <c r="H10" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I10" t="n">
         <v>1.08</v>
@@ -1584,7 +1584,7 @@
         <v>3.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AE10" t="n">
         <v>1.6</v>
@@ -1596,7 +1596,7 @@
         <v>2.48</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="11">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" t="n">
-        <v>4.75</v>
+        <v>4.6</v>
       </c>
       <c r="H11" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="I11" t="n">
         <v>1.04</v>
@@ -1643,10 +1643,10 @@
         <v>3.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="N11" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="O11" t="n">
         <v>1.36</v>
@@ -1694,16 +1694,16 @@
         <v>1.26</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AE11" t="n">
         <v>1.88</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="AH11" t="n">
         <v>0</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>5.7</v>
+        <v>5.75</v>
       </c>
       <c r="G14" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="I14" t="n">
         <v>1.03</v>
@@ -1973,10 +1973,10 @@
         <v>4.2</v>
       </c>
       <c r="M14" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="N14" t="n">
-        <v>2.22</v>
+        <v>2.33</v>
       </c>
       <c r="O14" t="n">
         <v>1.29</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="G15" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="H15" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="I15" t="n">
         <v>1.04</v>
@@ -2083,10 +2083,10 @@
         <v>4.15</v>
       </c>
       <c r="M15" t="n">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="N15" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="O15" t="n">
         <v>1.33</v>
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G16" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="H16" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="I16" t="n">
         <v>1.07</v>
@@ -2193,10 +2193,10 @@
         <v>3.35</v>
       </c>
       <c r="M16" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="N16" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="O16" t="n">
         <v>1.4</v>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="G17" t="n">
-        <v>3.5</v>
+        <v>3.48</v>
       </c>
       <c r="H17" t="n">
-        <v>3.45</v>
+        <v>2.97</v>
       </c>
       <c r="I17" t="n">
         <v>1.05</v>
@@ -2303,10 +2303,10 @@
         <v>4.05</v>
       </c>
       <c r="M17" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="N17" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
         <v>1.36</v>
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="G18" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>9.1</v>
       </c>
       <c r="I18" t="n">
         <v>1.02</v>
@@ -2413,10 +2413,10 @@
         <v>5.4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="N18" t="n">
-        <v>2.31</v>
+        <v>2.43</v>
       </c>
       <c r="O18" t="n">
         <v>1.29</v>
